--- a/oc数据字典_V2.8.xlsx
+++ b/oc数据字典_V2.8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/工作文档/通用字典/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\sparkpad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="820" windowWidth="25600" windowHeight="14720" tabRatio="598" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="1995" yWindow="825" windowWidth="25605" windowHeight="14715" tabRatio="598" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="订单概况表" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1582,38 +1582,6 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Lantinghei SC Demibold"/>
-        <family val="1"/>
-      </rPr>
-      <t>支付类型表（oc_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>payment_middle_table</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Lantinghei SC Demibold"/>
-        <family val="1"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Lantinghei SC Demibold"/>
       </rPr>
@@ -1656,23 +1624,68 @@
     <t>int</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付类型中间表（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="1"/>
+      </rPr>
+      <t>oc_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>payment_middle_table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1686,7 +1699,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1694,7 +1707,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1734,7 +1747,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1754,7 +1767,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1774,7 +1787,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1797,6 +1810,54 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2057,7 +2118,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2253,15 +2314,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2283,63 +2335,117 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="104">
     <dxf>
@@ -5247,29 +5353,29 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="126.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="126.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:10" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="D4" s="90" t="s">
+    <row r="1" spans="4:10" ht="15.95" customHeight="1"/>
+    <row r="2" spans="4:10" ht="15.95" customHeight="1"/>
+    <row r="3" spans="4:10" ht="15.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:10" ht="18.75">
+      <c r="D4" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-    </row>
-    <row r="5" spans="4:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="4:10" ht="19.5">
       <c r="D5" s="28" t="s">
         <v>163</v>
       </c>
@@ -5290,7 +5396,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:10" ht="15" customHeight="1">
       <c r="D6" s="29" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:10" ht="15" customHeight="1">
       <c r="D7" s="29" t="s">
         <v>172</v>
       </c>
@@ -5326,7 +5432,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:10">
       <c r="D8" s="29" t="s">
         <v>16</v>
       </c>
@@ -5344,7 +5450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:10">
       <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
@@ -5362,7 +5468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:10">
       <c r="D10" s="29" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:10">
       <c r="D11" s="29" t="s">
         <v>6</v>
       </c>
@@ -5398,7 +5504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:10">
       <c r="D12" s="29" t="s">
         <v>7</v>
       </c>
@@ -5416,7 +5522,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:10">
       <c r="D13" s="29" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +5540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:10">
       <c r="D14" s="29" t="s">
         <v>12</v>
       </c>
@@ -5452,7 +5558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:10">
       <c r="D15" s="29" t="s">
         <v>13</v>
       </c>
@@ -5470,7 +5576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:10">
       <c r="D16" s="29" t="s">
         <v>14</v>
       </c>
@@ -5488,7 +5594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="29" t="s">
         <v>15</v>
       </c>
@@ -5506,7 +5612,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="29" t="s">
         <v>18</v>
       </c>
@@ -5524,7 +5630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="29" t="s">
         <v>20</v>
       </c>
@@ -5542,7 +5648,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="29" t="s">
         <v>22</v>
       </c>
@@ -5560,7 +5666,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="29" t="s">
         <v>23</v>
       </c>
@@ -5578,7 +5684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="29" t="s">
         <v>24</v>
       </c>
@@ -5596,7 +5702,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="29" t="s">
         <v>25</v>
       </c>
@@ -5614,7 +5720,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="29" t="s">
         <v>26</v>
       </c>
@@ -5632,7 +5738,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
@@ -5650,7 +5756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9">
       <c r="D26" s="29" t="s">
         <v>28</v>
       </c>
@@ -5668,7 +5774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:9">
       <c r="D27" s="29" t="s">
         <v>29</v>
       </c>
@@ -5686,7 +5792,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:9">
       <c r="D28" s="29" t="s">
         <v>30</v>
       </c>
@@ -5704,7 +5810,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:9">
       <c r="D29" s="29" t="s">
         <v>31</v>
       </c>
@@ -5722,7 +5828,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:9">
       <c r="D30" s="29" t="s">
         <v>32</v>
       </c>
@@ -5740,7 +5846,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:9">
       <c r="D31" s="29" t="s">
         <v>33</v>
       </c>
@@ -5758,7 +5864,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:9">
       <c r="D32" s="29" t="s">
         <v>34</v>
       </c>
@@ -5776,7 +5882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:9">
       <c r="D33" s="29" t="s">
         <v>35</v>
       </c>
@@ -5794,7 +5900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9">
       <c r="D34" s="29" t="s">
         <v>37</v>
       </c>
@@ -5812,7 +5918,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9">
       <c r="D35" s="29" t="s">
         <v>39</v>
       </c>
@@ -5830,7 +5936,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9">
       <c r="D36" s="29" t="s">
         <v>40</v>
       </c>
@@ -5848,7 +5954,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9">
       <c r="D37" s="29" t="s">
         <v>41</v>
       </c>
@@ -5866,7 +5972,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9">
       <c r="D38" s="29" t="s">
         <v>42</v>
       </c>
@@ -5884,7 +5990,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:9">
       <c r="D39" s="29" t="s">
         <v>43</v>
       </c>
@@ -5902,7 +6008,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9">
       <c r="D40" s="29" t="s">
         <v>44</v>
       </c>
@@ -5920,7 +6026,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9">
       <c r="D41" s="29" t="s">
         <v>45</v>
       </c>
@@ -5938,7 +6044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9">
       <c r="D42" s="29" t="s">
         <v>46</v>
       </c>
@@ -5956,7 +6062,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9">
       <c r="D43" s="29" t="s">
         <v>47</v>
       </c>
@@ -5974,7 +6080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9">
       <c r="D44" s="29" t="s">
         <v>48</v>
       </c>
@@ -5992,7 +6098,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:9">
       <c r="D45" s="29" t="s">
         <v>49</v>
       </c>
@@ -6010,7 +6116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:9">
       <c r="D46" s="29" t="s">
         <v>50</v>
       </c>
@@ -6028,7 +6134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:9">
       <c r="D47" s="29" t="s">
         <v>51</v>
       </c>
@@ -6046,7 +6152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:9">
       <c r="D48" s="29" t="s">
         <v>52</v>
       </c>
@@ -6064,7 +6170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:9">
       <c r="D49" s="29" t="s">
         <v>53</v>
       </c>
@@ -6082,7 +6188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:9">
       <c r="D50" s="29" t="s">
         <v>54</v>
       </c>
@@ -6100,7 +6206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:9">
       <c r="D51" s="29" t="s">
         <v>56</v>
       </c>
@@ -6118,7 +6224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:9">
       <c r="D52" s="29" t="s">
         <v>57</v>
       </c>
@@ -6136,7 +6242,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:9">
       <c r="D53" s="29" t="s">
         <v>58</v>
       </c>
@@ -6154,7 +6260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:9">
       <c r="D54" s="29" t="s">
         <v>59</v>
       </c>
@@ -6172,7 +6278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:9">
       <c r="D55" s="29" t="s">
         <v>60</v>
       </c>
@@ -6190,7 +6296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:9">
       <c r="D56" s="29" t="s">
         <v>61</v>
       </c>
@@ -6208,7 +6314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:9">
       <c r="D57" s="29" t="s">
         <v>62</v>
       </c>
@@ -6226,7 +6332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:9">
       <c r="D58" s="29" t="s">
         <v>63</v>
       </c>
@@ -6244,7 +6350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:9">
       <c r="D59" s="29" t="s">
         <v>64</v>
       </c>
@@ -6262,7 +6368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:9">
       <c r="D60" s="29" t="s">
         <v>65</v>
       </c>
@@ -6280,7 +6386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:9">
       <c r="D61" s="4" t="s">
         <v>67</v>
       </c>
@@ -6318,31 +6424,31 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="40"/>
-    <col min="9" max="9" width="56.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="5" max="6" width="13.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="40"/>
+    <col min="9" max="9" width="56.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.25">
+      <c r="D4" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="18.75">
       <c r="D5" s="41" t="s">
         <v>166</v>
       </c>
@@ -6362,12 +6468,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9">
       <c r="D6" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>353</v>
@@ -6380,7 +6486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="46" t="s">
         <v>391</v>
       </c>
@@ -6398,7 +6504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="D8" s="46" t="s">
         <v>437</v>
       </c>
@@ -6416,7 +6522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="D9" s="46" t="s">
         <v>393</v>
       </c>
@@ -6434,9 +6540,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9">
       <c r="D10" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E10" s="51" t="s">
         <v>449</v>
@@ -6452,7 +6558,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9">
       <c r="D11" s="46" t="s">
         <v>382</v>
       </c>
@@ -6470,7 +6576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9">
       <c r="D12" s="46" t="s">
         <v>394</v>
       </c>
@@ -6488,7 +6594,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9">
       <c r="D13" s="46" t="s">
         <v>395</v>
       </c>
@@ -6506,7 +6612,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9">
       <c r="D14" s="46" t="s">
         <v>396</v>
       </c>
@@ -6524,7 +6630,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9">
       <c r="D15" s="46" t="s">
         <v>389</v>
       </c>
@@ -6542,7 +6648,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9">
       <c r="D16" s="46" t="s">
         <v>390</v>
       </c>
@@ -6560,7 +6666,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="46" t="s">
         <v>392</v>
       </c>
@@ -6578,7 +6684,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="46" t="s">
         <v>397</v>
       </c>
@@ -6596,7 +6702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="46" t="s">
         <v>398</v>
       </c>
@@ -6614,7 +6720,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="46" t="s">
         <v>399</v>
       </c>
@@ -6632,7 +6738,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="46" t="s">
         <v>400</v>
       </c>
@@ -6650,7 +6756,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="46" t="s">
         <v>401</v>
       </c>
@@ -6668,7 +6774,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="46" t="s">
         <v>402</v>
       </c>
@@ -6686,7 +6792,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="46" t="s">
         <v>403</v>
       </c>
@@ -6704,7 +6810,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="46" t="s">
         <v>404</v>
       </c>
@@ -6722,7 +6828,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9">
       <c r="D26" s="46" t="s">
         <v>405</v>
       </c>
@@ -6740,7 +6846,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:9">
       <c r="D27" s="54" t="s">
         <v>432</v>
       </c>
@@ -6776,16 +6882,16 @@
       <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="13" t="s">
         <v>166</v>
       </c>
@@ -6805,7 +6911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -6823,7 +6929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>172</v>
       </c>
@@ -6841,7 +6947,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -6859,7 +6965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>180</v>
       </c>
@@ -6877,7 +6983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
@@ -6895,7 +7001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>203</v>
       </c>
@@ -6913,7 +7019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>204</v>
       </c>
@@ -6931,7 +7037,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>193</v>
       </c>
@@ -6949,7 +7055,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>185</v>
       </c>
@@ -6979,12 +7085,12 @@
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="13" t="s">
         <v>166</v>
       </c>
@@ -7004,7 +7110,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -7018,7 +7124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -7035,7 +7141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -7052,7 +7158,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -7069,7 +7175,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7086,7 +7192,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7103,7 +7209,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -7120,7 +7226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -7137,7 +7243,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -7154,7 +7260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -7171,7 +7277,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -7188,7 +7294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -7205,7 +7311,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -7222,7 +7328,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -7239,7 +7345,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -7256,7 +7362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>227</v>
       </c>
@@ -7273,7 +7379,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>229</v>
       </c>
@@ -7290,7 +7396,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>230</v>
       </c>
@@ -7307,7 +7413,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -7324,7 +7430,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -7341,7 +7447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -7358,7 +7464,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -7375,7 +7481,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -7392,7 +7498,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -7409,7 +7515,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -7426,7 +7532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>246</v>
       </c>
@@ -7443,7 +7549,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -7460,7 +7566,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -7477,7 +7583,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>252</v>
       </c>
@@ -7494,7 +7600,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -7511,7 +7617,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>256</v>
       </c>
@@ -7528,7 +7634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -7545,7 +7651,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -7562,7 +7668,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -7579,7 +7685,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -7596,7 +7702,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>266</v>
       </c>
@@ -7613,7 +7719,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -7630,7 +7736,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>270</v>
       </c>
@@ -7647,7 +7753,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -7664,7 +7770,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>274</v>
       </c>
@@ -7681,7 +7787,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>276</v>
       </c>
@@ -7698,7 +7804,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -7715,7 +7821,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -7732,7 +7838,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -7749,7 +7855,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>284</v>
       </c>
@@ -7766,7 +7872,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>286</v>
       </c>
@@ -7783,7 +7889,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -7806,7 +7912,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -7829,7 +7935,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>292</v>
       </c>
@@ -7852,7 +7958,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -7863,7 +7969,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -7874,7 +7980,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -7888,7 +7994,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
         <v>185</v>
       </c>
@@ -7919,29 +8025,29 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="D4" s="93" t="s">
+    <row r="1" spans="4:9" ht="15.95" customHeight="1"/>
+    <row r="2" spans="4:9" ht="15.95" customHeight="1"/>
+    <row r="3" spans="4:9" ht="15.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:9" ht="18.75">
+      <c r="D4" s="90" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="4:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="4:9" ht="19.5">
       <c r="D5" s="28" t="s">
         <v>163</v>
       </c>
@@ -7961,7 +8067,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9">
       <c r="D6" s="29" t="s">
         <v>109</v>
       </c>
@@ -7981,7 +8087,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="29" t="s">
         <v>0</v>
       </c>
@@ -8001,7 +8107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="D8" s="29" t="s">
         <v>172</v>
       </c>
@@ -8019,7 +8125,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
@@ -8039,7 +8145,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9">
       <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
@@ -8057,7 +8163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9">
       <c r="D11" s="29" t="s">
         <v>129</v>
       </c>
@@ -8075,7 +8181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9">
       <c r="D12" s="29" t="s">
         <v>120</v>
       </c>
@@ -8093,7 +8199,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9">
       <c r="D13" s="29" t="s">
         <v>132</v>
       </c>
@@ -8111,7 +8217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9">
       <c r="D14" s="29" t="s">
         <v>134</v>
       </c>
@@ -8129,7 +8235,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9">
       <c r="D15" s="29" t="s">
         <v>136</v>
       </c>
@@ -8147,7 +8253,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9">
       <c r="D16" s="29" t="s">
         <v>138</v>
       </c>
@@ -8165,7 +8271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="29" t="s">
         <v>140</v>
       </c>
@@ -8183,7 +8289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="29" t="s">
         <v>117</v>
       </c>
@@ -8201,7 +8307,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="29" t="s">
         <v>115</v>
       </c>
@@ -8219,7 +8325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="29" t="s">
         <v>116</v>
       </c>
@@ -8237,7 +8343,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="29" t="s">
         <v>39</v>
       </c>
@@ -8255,7 +8361,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="29" t="s">
         <v>142</v>
       </c>
@@ -8273,7 +8379,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="29" t="s">
         <v>144</v>
       </c>
@@ -8291,7 +8397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="29" t="s">
         <v>147</v>
       </c>
@@ -8309,7 +8415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="4" t="s">
         <v>149</v>
       </c>
@@ -8347,29 +8453,29 @@
       <selection activeCell="D5" sqref="D5:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
     <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="D4" s="93" t="s">
+    <row r="1" spans="4:9" ht="15.95" customHeight="1"/>
+    <row r="2" spans="4:9" ht="15.95" customHeight="1"/>
+    <row r="3" spans="4:9" ht="15.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:9" ht="18.75">
+      <c r="D4" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="4:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="4:9" ht="19.5">
       <c r="D5" s="36" t="s">
         <v>166</v>
       </c>
@@ -8389,7 +8495,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9">
       <c r="D6" s="29" t="s">
         <v>109</v>
       </c>
@@ -8407,7 +8513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="29" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +8531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="D8" s="37" t="s">
         <v>172</v>
       </c>
@@ -8443,7 +8549,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
@@ -8461,7 +8567,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9">
       <c r="D10" s="29" t="s">
         <v>152</v>
       </c>
@@ -8479,7 +8585,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9">
       <c r="D11" s="29" t="s">
         <v>154</v>
       </c>
@@ -8497,7 +8603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9">
       <c r="D12" s="29" t="s">
         <v>156</v>
       </c>
@@ -8515,7 +8621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9">
       <c r="D13" s="29" t="s">
         <v>120</v>
       </c>
@@ -8533,7 +8639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9">
       <c r="D14" s="29" t="s">
         <v>132</v>
       </c>
@@ -8551,7 +8657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9">
       <c r="D15" s="29" t="s">
         <v>134</v>
       </c>
@@ -8569,7 +8675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9">
       <c r="D16" s="29" t="s">
         <v>136</v>
       </c>
@@ -8587,7 +8693,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="29" t="s">
         <v>138</v>
       </c>
@@ -8605,7 +8711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="29" t="s">
         <v>140</v>
       </c>
@@ -8623,7 +8729,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="29" t="s">
         <v>117</v>
       </c>
@@ -8641,7 +8747,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="29" t="s">
         <v>115</v>
       </c>
@@ -8659,7 +8765,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="29" t="s">
         <v>116</v>
       </c>
@@ -8677,7 +8783,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="29" t="s">
         <v>39</v>
       </c>
@@ -8695,7 +8801,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="29" t="s">
         <v>147</v>
       </c>
@@ -8713,7 +8819,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="4" t="s">
         <v>149</v>
       </c>
@@ -8731,7 +8837,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="4:9" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
@@ -8753,32 +8859,32 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="64.375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.100000000000001" customHeight="1">
+      <c r="D4" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="16.7" customHeight="1">
       <c r="D5" s="82" t="s">
         <v>166</v>
       </c>
@@ -8798,12 +8904,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9" ht="16.7" customHeight="1">
       <c r="D6" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>325</v>
@@ -8816,7 +8922,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" ht="16.7" customHeight="1">
       <c r="D7" s="46" t="s">
         <v>437</v>
       </c>
@@ -8834,9 +8940,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9" ht="16.7" customHeight="1">
       <c r="D8" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>449</v>
@@ -8852,7 +8958,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9" ht="16.7" customHeight="1">
       <c r="D9" s="46" t="s">
         <v>382</v>
       </c>
@@ -8867,10 +8973,10 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="49" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="16.7" customHeight="1">
       <c r="D10" s="80" t="s">
         <v>438</v>
       </c>
@@ -8886,7 +8992,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" ht="16.7" customHeight="1">
       <c r="D11" s="80" t="s">
         <v>439</v>
       </c>
@@ -8902,7 +9008,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9" ht="16.7" customHeight="1">
       <c r="D12" s="46" t="s">
         <v>352</v>
       </c>
@@ -8920,7 +9026,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9" ht="16.7" customHeight="1">
       <c r="D13" s="46" t="s">
         <v>383</v>
       </c>
@@ -8938,7 +9044,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9" ht="16.7" customHeight="1">
       <c r="D14" s="46" t="s">
         <v>384</v>
       </c>
@@ -8956,7 +9062,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9" ht="16.7" customHeight="1">
       <c r="D15" s="46" t="s">
         <v>385</v>
       </c>
@@ -8974,7 +9080,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9" ht="16.7" customHeight="1">
       <c r="D16" s="54" t="s">
         <v>432</v>
       </c>
@@ -8990,18 +9096,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="16.7" customHeight="1"/>
+    <row r="18" ht="16.7" customHeight="1"/>
+    <row r="19" ht="16.7" customHeight="1"/>
+    <row r="20" ht="16.7" customHeight="1"/>
+    <row r="21" ht="16.7" customHeight="1"/>
+    <row r="22" ht="16.7" customHeight="1"/>
+    <row r="23" ht="16.7" customHeight="1"/>
+    <row r="24" ht="16.7" customHeight="1"/>
+    <row r="25" ht="16.7" customHeight="1"/>
+    <row r="26" ht="16.7" customHeight="1"/>
+    <row r="27" ht="16.7" customHeight="1"/>
+    <row r="28" ht="16.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
@@ -9019,36 +9125,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="64.375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.100000000000001" customHeight="1">
+      <c r="D4" s="111" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="16.7" customHeight="1">
       <c r="D5" s="76" t="s">
         <v>322</v>
       </c>
@@ -9068,7 +9174,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9" ht="16.7" customHeight="1">
       <c r="D6" s="46" t="s">
         <v>324</v>
       </c>
@@ -9086,9 +9192,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" ht="16.7" customHeight="1">
       <c r="D7" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>449</v>
@@ -9102,7 +9208,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9" ht="16.7" customHeight="1">
       <c r="D8" s="80" t="s">
         <v>382</v>
       </c>
@@ -9120,7 +9226,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9" ht="16.7" customHeight="1">
       <c r="D9" s="46" t="s">
         <v>437</v>
       </c>
@@ -9138,7 +9244,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9" ht="16.7" customHeight="1">
       <c r="D10" s="80" t="s">
         <v>438</v>
       </c>
@@ -9154,7 +9260,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" ht="16.7" customHeight="1">
       <c r="D11" s="80" t="s">
         <v>439</v>
       </c>
@@ -9170,7 +9276,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9" ht="16.7" customHeight="1">
       <c r="D12" s="80" t="s">
         <v>440</v>
       </c>
@@ -9188,7 +9294,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9" ht="16.7" customHeight="1">
       <c r="D13" s="46" t="s">
         <v>352</v>
       </c>
@@ -9206,7 +9312,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9" ht="16.7" customHeight="1">
       <c r="D14" s="80" t="s">
         <v>445</v>
       </c>
@@ -9224,7 +9330,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9" ht="16.7" customHeight="1">
       <c r="D15" s="80" t="s">
         <v>333</v>
       </c>
@@ -9242,7 +9348,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9" ht="16.7" customHeight="1">
       <c r="D16" s="80" t="s">
         <v>431</v>
       </c>
@@ -9260,7 +9366,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" ht="16.7" customHeight="1">
       <c r="D17" s="54" t="s">
         <v>432</v>
       </c>
@@ -9276,8 +9382,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="19" spans="4:9" ht="16.7" customHeight="1">
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
@@ -9285,7 +9391,7 @@
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
     </row>
-    <row r="20" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9" ht="16.7" customHeight="1">
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
@@ -9293,7 +9399,7 @@
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
     </row>
-    <row r="21" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9" ht="16.7" customHeight="1">
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
@@ -9301,7 +9407,7 @@
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
     </row>
-    <row r="22" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9" ht="16.7" customHeight="1">
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
@@ -9309,12 +9415,12 @@
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
     </row>
-    <row r="23" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="24" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="25" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="26" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="27" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="28" spans="4:9" ht="16.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
@@ -9331,252 +9437,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="1" max="3" width="8.875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.875" style="94" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="94" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="94" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.625" style="94" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="87" t="s">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.100000000000001" customHeight="1">
+      <c r="D4" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+    </row>
+    <row r="5" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D5" s="96" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="98" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="46" t="s">
+    <row r="6" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D6" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53" t="s">
+      <c r="H6" s="101"/>
+      <c r="I6" s="102" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="47" t="s">
+    <row r="7" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D7" s="99" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="100" t="s">
         <v>449</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="46" t="s">
+    <row r="8" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D8" s="99" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="102" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="46" t="s">
+    <row r="9" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D9" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="103"/>
+      <c r="I9" s="104" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="80" t="s">
+    <row r="10" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D10" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53" t="s">
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="80" t="s">
+    <row r="11" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D11" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53" t="s">
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="46" t="s">
+    <row r="12" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D12" s="99" t="s">
         <v>441</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="46" t="s">
+    <row r="13" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D13" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="102" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="46" t="s">
+    <row r="14" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D14" s="99" t="s">
         <v>333</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="100" t="s">
         <v>435</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53" t="s">
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="46" t="s">
+    <row r="15" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D15" s="99" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="100" t="s">
         <v>335</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53" t="s">
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="54" t="s">
+    <row r="16" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D16" s="106" t="s">
         <v>432</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="108"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="16.7" customHeight="1"/>
+    <row r="18" ht="16.7" customHeight="1"/>
+    <row r="19" ht="16.7" customHeight="1"/>
+    <row r="20" ht="16.7" customHeight="1"/>
+    <row r="21" ht="16.7" customHeight="1"/>
+    <row r="22" ht="16.7" customHeight="1"/>
+    <row r="23" ht="16.7" customHeight="1"/>
+    <row r="24" ht="16.7" customHeight="1"/>
+    <row r="25" ht="16.7" customHeight="1"/>
+    <row r="26" ht="16.7" customHeight="1"/>
+    <row r="27" ht="16.7" customHeight="1"/>
+    <row r="28" ht="16.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
@@ -9597,32 +9703,32 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="5" max="5" width="13.375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="64.375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="16.7" customHeight="1">
+      <c r="D4" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="16.7" customHeight="1">
       <c r="D5" s="75" t="s">
         <v>322</v>
       </c>
@@ -9642,7 +9748,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9" ht="16.7" customHeight="1">
       <c r="D6" s="47" t="s">
         <v>324</v>
       </c>
@@ -9660,9 +9766,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9" ht="16.7" customHeight="1">
       <c r="D7" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>449</v>
@@ -9676,7 +9782,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9" ht="16.7" customHeight="1">
       <c r="D8" s="47" t="s">
         <v>382</v>
       </c>
@@ -9692,7 +9798,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9" ht="16.7" customHeight="1">
       <c r="D9" s="47" t="s">
         <v>437</v>
       </c>
@@ -9710,7 +9816,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9" ht="16.7" customHeight="1">
       <c r="D10" s="51" t="s">
         <v>438</v>
       </c>
@@ -9726,7 +9832,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" ht="16.7" customHeight="1">
       <c r="D11" s="51" t="s">
         <v>439</v>
       </c>
@@ -9742,7 +9848,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9" ht="16.7" customHeight="1">
       <c r="D12" s="47" t="s">
         <v>352</v>
       </c>
@@ -9760,7 +9866,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9" ht="16.7" customHeight="1">
       <c r="D13" s="47" t="s">
         <v>386</v>
       </c>
@@ -9776,7 +9882,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9" ht="16.7" customHeight="1">
       <c r="D14" s="47" t="s">
         <v>387</v>
       </c>
@@ -9792,7 +9898,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9" ht="16.7" customHeight="1">
       <c r="D15" s="47" t="s">
         <v>442</v>
       </c>
@@ -9808,7 +9914,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9" ht="16.7" customHeight="1">
       <c r="D16" s="47" t="s">
         <v>443</v>
       </c>
@@ -9824,7 +9930,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" ht="16.7" customHeight="1">
       <c r="D17" s="47" t="s">
         <v>444</v>
       </c>
@@ -9840,7 +9946,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9" ht="16.7" customHeight="1">
       <c r="D18" s="47" t="s">
         <v>432</v>
       </c>
@@ -9856,16 +9962,16 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="4:9" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="20" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="21" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="22" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="23" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="24" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="25" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="26" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="27" spans="4:9" ht="16.7" customHeight="1"/>
+    <row r="28" spans="4:9" ht="16.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:I4"/>
@@ -9887,32 +9993,32 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="40" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.1640625" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="7" max="7" width="9.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.125" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.25">
+      <c r="D4" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="18.75">
       <c r="D5" s="66" t="s">
         <v>163</v>
       </c>
@@ -9932,12 +10038,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9">
       <c r="D6" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>325</v>
@@ -9950,7 +10056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="46" t="s">
         <v>391</v>
       </c>
@@ -9968,7 +10074,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="D8" s="46" t="s">
         <v>437</v>
       </c>
@@ -9986,9 +10092,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="D9" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>449</v>
@@ -10004,7 +10110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9">
       <c r="D10" s="46" t="s">
         <v>382</v>
       </c>
@@ -10022,7 +10128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9">
       <c r="D11" s="46" t="s">
         <v>416</v>
       </c>
@@ -10040,7 +10146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9">
       <c r="D12" s="46" t="s">
         <v>417</v>
       </c>
@@ -10058,7 +10164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9">
       <c r="D13" s="46" t="s">
         <v>386</v>
       </c>
@@ -10076,7 +10182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9">
       <c r="D14" s="46" t="s">
         <v>411</v>
       </c>
@@ -10094,7 +10200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9">
       <c r="D15" s="46" t="s">
         <v>418</v>
       </c>
@@ -10112,7 +10218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9">
       <c r="D16" s="46" t="s">
         <v>387</v>
       </c>
@@ -10130,7 +10236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="46" t="s">
         <v>402</v>
       </c>
@@ -10148,7 +10254,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="46" t="s">
         <v>352</v>
       </c>
@@ -10166,7 +10272,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="46" t="s">
         <v>419</v>
       </c>
@@ -10184,7 +10290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="46" t="s">
         <v>420</v>
       </c>
@@ -10202,7 +10308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="46" t="s">
         <v>421</v>
       </c>
@@ -10220,7 +10326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="46" t="s">
         <v>393</v>
       </c>
@@ -10238,7 +10344,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="46" t="s">
         <v>422</v>
       </c>
@@ -10256,7 +10362,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="46" t="s">
         <v>423</v>
       </c>
@@ -10274,7 +10380,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="46" t="s">
         <v>424</v>
       </c>
@@ -10292,7 +10398,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9">
       <c r="D26" s="46" t="s">
         <v>425</v>
       </c>
@@ -10310,7 +10416,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:9">
       <c r="D27" s="46" t="s">
         <v>426</v>
       </c>
@@ -10328,7 +10434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:9">
       <c r="D28" s="46" t="s">
         <v>427</v>
       </c>
@@ -10346,7 +10452,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:9">
       <c r="D29" s="46" t="s">
         <v>428</v>
       </c>
@@ -10364,7 +10470,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:9">
       <c r="D30" s="46" t="s">
         <v>429</v>
       </c>
@@ -10382,7 +10488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:9">
       <c r="D31" s="54" t="s">
         <v>430</v>
       </c>
@@ -10400,7 +10506,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:9">
       <c r="D32" s="54" t="s">
         <v>432</v>
       </c>
@@ -10437,32 +10543,32 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="40" customWidth="1"/>
+    <col min="1" max="3" width="8.875" style="40" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="40" customWidth="1"/>
     <col min="5" max="5" width="13" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="47.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="40"/>
+    <col min="6" max="6" width="11.875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="47.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="4:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="4:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="D4" s="96" t="s">
+    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="4:9" ht="20.25">
+      <c r="D4" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-    </row>
-    <row r="5" spans="4:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="4:9" ht="18.75">
       <c r="D5" s="59" t="s">
         <v>163</v>
       </c>
@@ -10482,12 +10588,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9">
       <c r="D6" s="46" t="s">
         <v>324</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>325</v>
@@ -10500,7 +10606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="46" t="s">
         <v>391</v>
       </c>
@@ -10520,7 +10626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="D8" s="46" t="s">
         <v>437</v>
       </c>
@@ -10538,9 +10644,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="D9" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>449</v>
@@ -10556,7 +10662,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:9">
       <c r="D10" s="46" t="s">
         <v>382</v>
       </c>
@@ -10574,7 +10680,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9">
       <c r="D11" s="46" t="s">
         <v>406</v>
       </c>
@@ -10594,7 +10700,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9">
       <c r="D12" s="46" t="s">
         <v>407</v>
       </c>
@@ -10612,7 +10718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9">
       <c r="D13" s="46" t="s">
         <v>408</v>
       </c>
@@ -10630,7 +10736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:9">
       <c r="D14" s="46" t="s">
         <v>409</v>
       </c>
@@ -10648,7 +10754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:9">
       <c r="D15" s="46" t="s">
         <v>410</v>
       </c>
@@ -10666,7 +10772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:9">
       <c r="D16" s="46" t="s">
         <v>411</v>
       </c>
@@ -10684,7 +10790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="46" t="s">
         <v>393</v>
       </c>
@@ -10702,7 +10808,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="D18" s="46" t="s">
         <v>403</v>
       </c>
@@ -10720,7 +10826,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="46" t="s">
         <v>404</v>
       </c>
@@ -10738,7 +10844,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="46" t="s">
         <v>412</v>
       </c>
@@ -10756,7 +10862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="46" t="s">
         <v>413</v>
       </c>
@@ -10774,7 +10880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="46" t="s">
         <v>392</v>
       </c>
@@ -10792,7 +10898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="46" t="s">
         <v>414</v>
       </c>
@@ -10810,7 +10916,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9">
       <c r="D24" s="46" t="s">
         <v>415</v>
       </c>
@@ -10828,7 +10934,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9">
       <c r="D25" s="54" t="s">
         <v>432</v>
       </c>
